--- a/wild_reports/2023_24/tr0502t018_wild_report.xlsx
+++ b/wild_reports/2023_24/tr0502t018_wild_report.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,20 +544,24 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Squirrel</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -595,7 +599,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Squirrel</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -604,13 +608,13 @@
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -643,14 +647,10 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Weasel</t>
-        </is>
-      </c>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -672,55 +672,6 @@
       </c>
       <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2023/24</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Registered Trapline</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>TR0502T018</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
